--- a/spec/fixtures/imported4.xlsx
+++ b/spec/fixtures/imported4.xlsx
@@ -326,12 +326,12 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
@@ -1506,7 +1506,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="A3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2645,7 +2645,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="A3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3784,7 +3784,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="A3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4932,7 +4932,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="A3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4942,7 +4942,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.57"/>
@@ -6092,15 +6092,15 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="A3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="0" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="16" style="0" width="8.71"/>
